--- a/natmiOut/OldD0/LR-pairs_lrc2p/Adam9-Itgav.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Adam9-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.3202049042199</v>
+        <v>11.915632</v>
       </c>
       <c r="H2">
-        <v>11.3202049042199</v>
+        <v>35.746896</v>
       </c>
       <c r="I2">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850903</v>
       </c>
       <c r="J2">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850904</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N2">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P2">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q2">
-        <v>193.4184977198163</v>
+        <v>251.4119867703894</v>
       </c>
       <c r="R2">
-        <v>193.4184977198163</v>
+        <v>2262.707880933504</v>
       </c>
       <c r="S2">
-        <v>0.05362973443272536</v>
+        <v>0.06428894583017443</v>
       </c>
       <c r="T2">
-        <v>0.05362973443272536</v>
+        <v>0.06428894583017446</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.3202049042199</v>
+        <v>11.915632</v>
       </c>
       <c r="H3">
-        <v>11.3202049042199</v>
+        <v>35.746896</v>
       </c>
       <c r="I3">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850903</v>
       </c>
       <c r="J3">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850904</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N3">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P3">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q3">
-        <v>403.2564257395388</v>
+        <v>426.8112376829387</v>
       </c>
       <c r="R3">
-        <v>403.2564257395388</v>
+        <v>3841.301139146448</v>
       </c>
       <c r="S3">
-        <v>0.1118121341839261</v>
+        <v>0.1091405580600577</v>
       </c>
       <c r="T3">
-        <v>0.1118121341839261</v>
+        <v>0.1091405580600578</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.3202049042199</v>
+        <v>11.915632</v>
       </c>
       <c r="H4">
-        <v>11.3202049042199</v>
+        <v>35.746896</v>
       </c>
       <c r="I4">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850903</v>
       </c>
       <c r="J4">
-        <v>0.2134251721666008</v>
+        <v>0.2203762099850904</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N4">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P4">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q4">
-        <v>173.0543435732899</v>
+        <v>183.5924434476267</v>
       </c>
       <c r="R4">
-        <v>173.0543435732899</v>
+        <v>1652.33199102864</v>
       </c>
       <c r="S4">
-        <v>0.04798330354994942</v>
+        <v>0.04694670609485815</v>
       </c>
       <c r="T4">
-        <v>0.04798330354994942</v>
+        <v>0.04694670609485816</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.7366138167649</v>
+        <v>29.800487</v>
       </c>
       <c r="H5">
-        <v>29.7366138167649</v>
+        <v>89.40146100000001</v>
       </c>
       <c r="I5">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691683</v>
       </c>
       <c r="J5">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691684</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N5">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P5">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q5">
-        <v>508.0836628291896</v>
+        <v>628.7706471125628</v>
       </c>
       <c r="R5">
-        <v>508.0836628291896</v>
+        <v>5658.935824013065</v>
       </c>
       <c r="S5">
-        <v>0.1408779006577101</v>
+        <v>0.1607839092761355</v>
       </c>
       <c r="T5">
-        <v>0.1408779006577101</v>
+        <v>0.1607839092761356</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.7366138167649</v>
+        <v>29.800487</v>
       </c>
       <c r="H6">
-        <v>29.7366138167649</v>
+        <v>89.40146100000001</v>
       </c>
       <c r="I6">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691683</v>
       </c>
       <c r="J6">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691684</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N6">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P6">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q6">
-        <v>1059.298899870219</v>
+        <v>1067.43668653281</v>
       </c>
       <c r="R6">
-        <v>1059.298899870219</v>
+        <v>9606.930178795295</v>
       </c>
       <c r="S6">
-        <v>0.2937150239229556</v>
+        <v>0.2729558769221386</v>
       </c>
       <c r="T6">
-        <v>0.2937150239229556</v>
+        <v>0.2729558769221387</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.7366138167649</v>
+        <v>29.800487</v>
       </c>
       <c r="H7">
-        <v>29.7366138167649</v>
+        <v>89.40146100000001</v>
       </c>
       <c r="I7">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691683</v>
       </c>
       <c r="J7">
-        <v>0.5606384316532056</v>
+        <v>0.5511514941691684</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N7">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P7">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q7">
-        <v>454.5898442380975</v>
+        <v>459.1568642149434</v>
       </c>
       <c r="R7">
-        <v>454.5898442380975</v>
+        <v>4132.411777934491</v>
       </c>
       <c r="S7">
-        <v>0.1260455070725399</v>
+        <v>0.1174117079708941</v>
       </c>
       <c r="T7">
-        <v>0.1260455070725399</v>
+        <v>0.1174117079708942</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.9838080677957</v>
+        <v>12.35338333333333</v>
       </c>
       <c r="H8">
-        <v>11.9838080677957</v>
+        <v>37.06015</v>
       </c>
       <c r="I8">
-        <v>0.2259363961801936</v>
+        <v>0.2284722958457413</v>
       </c>
       <c r="J8">
-        <v>0.2259363961801936</v>
+        <v>0.2284722958457413</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.0861304504934</v>
+        <v>21.09934133333334</v>
       </c>
       <c r="N8">
-        <v>17.0861304504934</v>
+        <v>63.29802400000001</v>
       </c>
       <c r="O8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="P8">
-        <v>0.2512812049689326</v>
+        <v>0.2917236204149438</v>
       </c>
       <c r="Q8">
-        <v>204.7569079400326</v>
+        <v>260.6482515715111</v>
       </c>
       <c r="R8">
-        <v>204.7569079400326</v>
+        <v>2345.8342641436</v>
       </c>
       <c r="S8">
-        <v>0.05677356987849719</v>
+        <v>0.06665076530863376</v>
       </c>
       <c r="T8">
-        <v>0.05677356987849719</v>
+        <v>0.06665076530863379</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.9838080677957</v>
+        <v>12.35338333333333</v>
       </c>
       <c r="H9">
-        <v>11.9838080677957</v>
+        <v>37.06015</v>
       </c>
       <c r="I9">
-        <v>0.2259363961801936</v>
+        <v>0.2284722958457413</v>
       </c>
       <c r="J9">
-        <v>0.2259363961801936</v>
+        <v>0.2284722958457413</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.6227143546858</v>
+        <v>35.81943766666667</v>
       </c>
       <c r="N9">
-        <v>35.6227143546858</v>
+        <v>107.458313</v>
       </c>
       <c r="O9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="P9">
-        <v>0.5238938455518495</v>
+        <v>0.4952465516465762</v>
       </c>
       <c r="Q9">
-        <v>426.8957716804653</v>
+        <v>442.4912442807722</v>
       </c>
       <c r="R9">
-        <v>426.8957716804653</v>
+        <v>3982.42119852695</v>
       </c>
       <c r="S9">
-        <v>0.1183666874449678</v>
+        <v>0.1131501166643797</v>
       </c>
       <c r="T9">
-        <v>0.1183666874449678</v>
+        <v>0.1131501166643798</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.9838080677957</v>
+        <v>12.35338333333333</v>
       </c>
       <c r="H10">
-        <v>11.9838080677957</v>
+        <v>37.06015</v>
       </c>
       <c r="I10">
-        <v>0.2259363961801936</v>
+        <v>0.2284722958457413</v>
       </c>
       <c r="J10">
-        <v>0.2259363961801936</v>
+        <v>0.2284722958457413</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.2872094663922</v>
+        <v>15.40769666666667</v>
       </c>
       <c r="N10">
-        <v>15.2872094663922</v>
+        <v>46.22309</v>
       </c>
       <c r="O10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="P10">
-        <v>0.2248249494792179</v>
+        <v>0.2130298279384801</v>
       </c>
       <c r="Q10">
-        <v>183.1989841374336</v>
+        <v>190.3371832070555</v>
       </c>
       <c r="R10">
-        <v>183.1989841374336</v>
+        <v>1713.0346488635</v>
       </c>
       <c r="S10">
-        <v>0.05079613885672859</v>
+        <v>0.04867141387272778</v>
       </c>
       <c r="T10">
-        <v>0.05079613885672859</v>
+        <v>0.04867141387272779</v>
       </c>
     </row>
   </sheetData>
